--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_6.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_6.xlsx
@@ -706,7 +706,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_6.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/TEMPLATE_NICKMF_cons_KZT_6.xlsx
@@ -334,9 +334,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -382,6 +379,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -706,7 +704,7 @@
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="I15" sqref="I15:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,30 +1455,30 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1558,20 +1556,20 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="15">
         <v>1</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="K15" s="32"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="35"/>
+      <c r="K15" s="31"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1581,13 +1579,13 @@
       <c r="B16" s="15">
         <v>2</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="35"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
@@ -1597,45 +1595,45 @@
       <c r="B17" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="K17" s="32"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="K17" s="31"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="15">
         <v>4</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="15">
         <v>5</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -1644,135 +1642,135 @@
       <c r="B20" s="13">
         <v>6</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="15">
         <v>7</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="15">
         <v>8</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="15">
         <v>9</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="15">
         <v>10</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="K24" s="32"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="35"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="15">
         <v>11</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="15">
         <v>12</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="15">
         <v>13</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-    </row>
-    <row r="28" spans="1:13" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="15">
         <v>14</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
@@ -1781,101 +1779,101 @@
       <c r="B29" s="13">
         <v>15</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="K29" s="18"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="K29" s="17"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H30" s="33"/>
-      <c r="I30" s="18"/>
-      <c r="K30" s="19"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="17"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="34" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="33" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="18"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="20"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
-      <c r="G35" s="25"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="1"/>
-      <c r="E39" s="22"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="32"/>
+      <c r="C58" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
